--- a/Empirehomecrm/src/main/java/com/testdata/EmpireHome_Date0205.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/EmpireHome_Date0205.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7530" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Functionality" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="Customer_functionality" sheetId="5" r:id="rId5"/>
     <sheet name="Holidays_Functionality" sheetId="6" r:id="rId6"/>
     <sheet name="Employee_registration" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Catageories_Functionality" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name=" Company_Functionality_Data" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>username</t>
   </si>
@@ -217,6 +218,88 @@
   </si>
   <si>
     <t>lakidianilmarolix@gmail.com</t>
+  </si>
+  <si>
+    <t>searchName</t>
+  </si>
+  <si>
+    <t>EditName</t>
+  </si>
+  <si>
+    <t>EditsearchName</t>
+  </si>
+  <si>
+    <t>God Room</t>
+  </si>
+  <si>
+    <t>Hall Rom</t>
+  </si>
+  <si>
+    <t>Hall Room</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CompanyAddress</t>
+  </si>
+  <si>
+    <t>WarehouseAddress</t>
+  </si>
+  <si>
+    <t>ShowroomAddress</t>
+  </si>
+  <si>
+    <t>CEOName</t>
+  </si>
+  <si>
+    <t>CEOEmail</t>
+  </si>
+  <si>
+    <t>CEONumber</t>
+  </si>
+  <si>
+    <t>WareHouseNumber</t>
+  </si>
+  <si>
+    <t>ShowroomNumber</t>
+  </si>
+  <si>
+    <t>ShowroomEmail</t>
+  </si>
+  <si>
+    <t>WareHouseEmail</t>
+  </si>
+  <si>
+    <t>GSTNumber</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Empire Home</t>
+  </si>
+  <si>
+    <t>8-2-686/B/2/N, 8-2-686/B/2/N/1F, ROAD NO-12
+HYDERABAD, TELANGANA 500 034 INDIA
+GSTIN/UIN: 36AJKPM8342C1Z6, State Name :  Telangana, Code : 23</t>
+  </si>
+  <si>
+    <t>7-4-96/1 and 2,  No 240, PEDDAMMA GADDA, GAGANPAHAD, HYDERABAD, TELANGANA 500 052 INDIA
+GSTIN/UIN: 36AJKPM8342C1Z6, State Name :  Telangana, Code : 23</t>
+  </si>
+  <si>
+    <t>8-2-686/B/2/N, 8-2-686/B/2/N/1F, 8-2-686-B/2/N/2F,8-2-686/B/2/N/3F, 8-2-686/B/2/N/4F , HYDERABAD, TELANGANA 500 034 INDIA
+GSTIN/UIN: 36AJKPM8342C1Z6, State Name :  Telangana, Code : 23</t>
+  </si>
+  <si>
+    <t>info@empirehome.in</t>
+  </si>
+  <si>
+    <t>warehouse@empirehome.in</t>
+  </si>
+  <si>
+    <t>36AJKPM8342C1Z6</t>
   </si>
 </sst>
 </file>
@@ -238,6 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,14 +338,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -773,7 +856,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,38 +986,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,16 +1047,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1510,46 +1605,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1559,6 +1654,124 @@
     <hyperlink ref="A2" r:id="rId2" display="sureshbabu@gmail.com"/>
     <hyperlink ref="A3" r:id="rId3" display="sureshbabuem@gmail.com"/>
     <hyperlink ref="A6" r:id="rId4" display="sureshbamp@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
+    <col min="2" max="3" width="61.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="52.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="16.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="22.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="26.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="32.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="237" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12345678910</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10987654321</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6789054321</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="lakidianil@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId2" display="info@empirehome.in"/>
+    <hyperlink ref="K2" r:id="rId3" display="warehouse@empirehome.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1589,66 +1802,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="18">
         <v>4</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="18">
         <v>3</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="18">
         <v>500</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="18">
         <v>3</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1684,42 +1897,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1734,7 +1947,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1753,42 +1966,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1821,60 +2034,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>1234567890</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>1234567890</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1908,42 +2121,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>45192</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>45223</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1971,30 +2184,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2010,6 +2223,57 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="29.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="38.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2021,20 +2285,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>